--- a/connect4/481_compare.xlsx
+++ b/connect4/481_compare.xlsx
@@ -8,16 +8,123 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielwu/Project/481_project/connect4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B217695-101F-AB4D-B484-5CBCD94B16C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC07CA-21B8-4C4B-9332-19A0D0EFCFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{C9EB48D7-DE41-9B48-8605-C0F321187FFC}"/>
+    <workbookView xWindow="1020" yWindow="2600" windowWidth="28040" windowHeight="16420" activeTab="1" xr2:uid="{C9EB48D7-DE41-9B48-8605-C0F321187FFC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="100" sheetId="1" r:id="rId1"/>
+    <sheet name="1k" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$46:$D$46</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$47:$D$47</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'1k'!$B$35:$B$36</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'1k'!$B$35:$B$37</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'1k'!$C$34</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">'1k'!$D$35:$D$37</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">'1k'!$B$35</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">'1k'!$B$36</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">'1k'!$B$37</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">'1k'!$C$34:$D$34</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">'1k'!$C$35:$D$35</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">'1k'!$C$36:$D$36</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">'1k'!$C$37:$D$37</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'1k'!$C$35:$C$36</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'1k'!$C$35:$C$37</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'1k'!$D$34</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'1k'!$D$35:$D$36</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'1k'!$D$35:$D$37</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'1k'!$B$35:$B$36</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'1k'!$B$35:$B$37</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'1k'!$C$34</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'1k'!$C$35:$C$36</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'1k'!$C$34</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'1k'!$C$35:$C$37</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'1k'!$D$34</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'1k'!$D$35:$D$36</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'1k'!$D$35:$D$37</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'1k'!$B$35:$B$36</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'1k'!$B$35:$B$37</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'1k'!$C$34</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'1k'!$C$35:$C$36</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'1k'!$C$35:$C$37</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'1k'!$D$34</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'1k'!$C$35:$C$36</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'1k'!$D$35:$D$36</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'1k'!$D$35:$D$37</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'1k'!$B$35:$B$36</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'1k'!$B$35:$B$37</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'1k'!$C$34</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'1k'!$C$35:$C$36</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'1k'!$C$35:$C$37</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'1k'!$D$34</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'1k'!$D$35:$D$36</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'1k'!$D$35:$D$37</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'1k'!$C$35:$C$37</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'1k'!$B$35:$B$36</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'1k'!$C$35:$C$36</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'1k'!$D$35:$D$36</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'1k'!$B$34:$B$36</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'1k'!$B$35:$B$36</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'1k'!$B$35:$B$37</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'1k'!$C$34:$C$36</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'1k'!$C$35:$C$36</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'1k'!$C$35:$C$37</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'1k'!$D$34:$D$36</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'1k'!$D$34</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'1k'!$D$35:$D$36</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'1k'!$D$35:$D$37</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'1k'!$C$35:$C$37</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'1k'!$D$35:$D$37</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'1k'!$A$35:$B$35</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'1k'!$A$36:$B$36</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'1k'!$A$37:$B$37</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'1k'!$C$34:$D$34</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'1k'!$C$34:$E$34</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'1k'!$C$34:$I$34</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'1k'!$D$35:$D$36</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'1k'!$C$35:$D$35</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">'1k'!$C$35:$E$35</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'1k'!$C$35:$I$35</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">'1k'!$C$36:$D$36</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'1k'!$C$36:$E$36</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'1k'!$C$36:$I$36</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">'1k'!$C$37:$D$37</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">'1k'!$C$37:$E$37</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">'1k'!$C$37:$I$37</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">'1k'!$B$35:$B$37</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'1k'!$D$35:$D$37</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">'1k'!$C$34</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">'1k'!$C$35:$C$37</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">'1k'!$D$34</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">'1k'!$D$35:$D$37</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">'1k'!$B$35:$B$36</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">'1k'!$B$35:$B$37</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">'1k'!$C$34</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">'1k'!$C$35:$C$36</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">'1k'!$C$35:$C$37</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">'1k'!$D$34</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'1k'!$B$35:$B$36</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">'1k'!$D$35:$D$36</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">'1k'!$D$35:$D$37</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">'1k'!$B$35:$B$36</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">'1k'!$C$35:$C$36</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">'1k'!$D$35:$D$36</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">'1k'!$B$35:$B$36</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">'1k'!$B$35:$B$37</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">'1k'!$C$34</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">'1k'!$C$35:$C$36</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">'1k'!$C$35:$C$37</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'1k'!$B$35:$B$37</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">'1k'!$D$34</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">'1k'!$D$35:$D$36</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">'1k'!$D$35:$D$37</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">'1k'!$B$35:$B$36</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">'1k'!$B$35:$B$37</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">'1k'!$C$34</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">'1k'!$C$35:$C$36</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">'1k'!$C$35:$C$37</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">'1k'!$D$34</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">'1k'!$D$35:$D$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>default</t>
   </si>
@@ -335,7 +442,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$35:$B$36</c:f>
+              <c:f>'100'!$B$35:$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -349,7 +456,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$35:$C$36</c:f>
+              <c:f>'100'!$C$35:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -436,8 +543,6 @@
         <c:axId val="543710288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -633,7 +738,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$46:$B$47</c:f>
+              <c:f>'100'!$B$46:$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -647,15 +752,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$46:$C$47</c:f>
+              <c:f>'100'!$C$46:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,8 +836,6 @@
         <c:axId val="543739520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -921,7 +1021,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'100'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -942,7 +1042,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>'100'!$B$2:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -971,7 +1071,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>'100'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1025,7 +1125,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'100'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1048,7 +1148,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>'100'!$B$2:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1077,7 +1177,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>'100'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1396,7 +1496,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$17</c:f>
+              <c:f>'100'!$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1417,7 +1517,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$18:$B$21</c:f>
+              <c:f>'100'!$B$18:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1437,7 +1537,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$C$21</c:f>
+              <c:f>'100'!$C$18:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1482,7 +1582,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$17</c:f>
+              <c:f>'100'!$D$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1505,7 +1605,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$18:$B$21</c:f>
+              <c:f>'100'!$B$18:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1525,7 +1625,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$21</c:f>
+              <c:f>'100'!$D$18:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1548,6 +1648,1516 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AE5F-3A4E-998B-B51F941CAF66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="325941600"/>
+        <c:axId val="325943328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="325941600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325943328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="325943328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325941600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>default vs best 3 together</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1k'!$B$35:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>center+7+surrounding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1k'!$C$35:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E116-CC4B-AF8E-9BA840AC748C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="543708016"/>
+        <c:axId val="543710288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="543708016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543710288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543710288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543708016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>default vs all EV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1k'!$B$46:$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>all</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1k'!$C$46:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD00-1945-9AA9-6F0B156EF230}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="543737248"/>
+        <c:axId val="543739520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="543737248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543739520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543739520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543737248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>default vs individual EVs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1k'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Evs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1k'!$B$2:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>center dominance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7 trap</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>surrounding</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>block 7 trap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fork10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fork5,10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1k'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D17A-8745-AC24-BD373D428FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="543831520"/>
+        <c:axId val="543833248"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1k'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1k'!$B$2:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>center dominance</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7 trap</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>surrounding</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>block 7 trap</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fork10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fork5,10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1k'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D17A-8745-AC24-BD373D428FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="543831520"/>
+        <c:axId val="543833248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="543831520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543833248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543833248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543831520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>default vs best 3 combination</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1k'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Evs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1k'!$B$18:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>center+7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7 + surrounding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>center+surrounding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1k'!$C$18:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>530</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71A6-CE43-A0B9-922EEAFBA5BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="325941600"/>
+        <c:axId val="325943328"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1k'!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1k'!$B$18:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>default</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>center+7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7 + surrounding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>center+surrounding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1k'!$D$18:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-71A6-CE43-A0B9-922EEAFBA5BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1914,6 +3524,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3437,6 +5207,2044 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4085,6 +7893,163 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5348D2-681D-FF4D-93BC-8C5B44E1B4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A949075-86EA-5349-8714-1EBE0EF54CAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A226DA37-55FD-4A41-8EA8-C61F057AADDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3BE62A-C180-EE41-A70D-A7C595E430B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4400,8 +8365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D8E70F-93ED-974B-841F-39B82A96DF9B}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4979,30 +8944,643 @@
       <c r="B47" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="1">
-        <v>54</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="9">
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
-      <c r="E47">
-        <v>19</v>
-      </c>
-      <c r="F47">
-        <v>27</v>
-      </c>
       <c r="G47">
         <f>(C47-$C$2)/$C$2</f>
-        <v>3.8461538461538464E-2</v>
+        <v>-1</v>
       </c>
       <c r="H47">
         <f>(E47-$E$2)/$E$2</f>
-        <v>-0.54761904761904767</v>
+        <v>-1</v>
       </c>
       <c r="I47">
         <f>(F47-$F$2)/$F$2</f>
-        <v>3.5</v>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4737A6B6-8B35-DF49-8A1F-37114D3FCD5C}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>535</v>
+      </c>
+      <c r="D2" s="9">
+        <f>$C$2</f>
+        <v>535</v>
+      </c>
+      <c r="E2">
+        <v>373</v>
+      </c>
+      <c r="F2">
+        <v>92</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G9" si="0">(C2-$C$2)/$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>(E2-$E$2)/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>(F2-$F$2)/$F$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>711</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D6" si="1">$C$2</f>
+        <v>535</v>
+      </c>
+      <c r="E3">
+        <v>202</v>
+      </c>
+      <c r="F3">
+        <v>87</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32897196261682243</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="2">(E3-$E$2)/$E$2</f>
+        <v>-0.45844504021447718</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="3">(F3-$F$2)/$F$2</f>
+        <v>-5.434782608695652E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>541</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="1"/>
+        <v>535</v>
+      </c>
+      <c r="E4">
+        <v>377</v>
+      </c>
+      <c r="F4">
+        <v>82</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1214953271028037E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1.0723860589812333E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>-0.10869565217391304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>538</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="1"/>
+        <v>535</v>
+      </c>
+      <c r="E5">
+        <v>240</v>
+      </c>
+      <c r="F5">
+        <v>222</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>5.6074766355140183E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>-0.35656836461126007</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4130434782608696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>453</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="1"/>
+        <v>535</v>
+      </c>
+      <c r="E6">
+        <v>449</v>
+      </c>
+      <c r="F6">
+        <v>98</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-0.15327102803738318</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20375335120643431</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="3"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>524</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" ref="D8:D9" si="4">$C$2</f>
+        <v>535</v>
+      </c>
+      <c r="E8" s="6">
+        <v>397</v>
+      </c>
+      <c r="F8" s="6">
+        <v>79</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.0560747663551402E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="2"/>
+        <v>6.4343163538873996E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.14130434782608695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7">
+        <v>540</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="4"/>
+        <v>535</v>
+      </c>
+      <c r="E9" s="6">
+        <v>369</v>
+      </c>
+      <c r="F9" s="6">
+        <v>91</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>9.3457943925233638E-3</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.0723860589812333E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.0869565217391304E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C2</f>
+        <v>535</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" ref="D18:D21" si="5">$C$2</f>
+        <v>535</v>
+      </c>
+      <c r="E18">
+        <f>E2</f>
+        <v>373</v>
+      </c>
+      <c r="F18">
+        <f>F2</f>
+        <v>92</v>
+      </c>
+      <c r="G18">
+        <f>(C18-$C$2)/$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>(E18-$E$2)/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>(F18-$F$2)/$F$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>682</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="5"/>
+        <v>535</v>
+      </c>
+      <c r="E19">
+        <v>225</v>
+      </c>
+      <c r="F19">
+        <v>93</v>
+      </c>
+      <c r="G19" s="3">
+        <f>(C19-$C$2)/$C$2</f>
+        <v>0.27476635514018694</v>
+      </c>
+      <c r="H19">
+        <f>(E19-$E$2)/$E$2</f>
+        <v>-0.39678284182305629</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I21" si="6">(F19-$F$2)/$F$2</f>
+        <v>1.0869565217391304E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>543</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="5"/>
+        <v>535</v>
+      </c>
+      <c r="E20">
+        <v>282</v>
+      </c>
+      <c r="F20">
+        <v>175</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G21" si="7">(C20-$C$2)/$C$2</f>
+        <v>1.4953271028037384E-2</v>
+      </c>
+      <c r="H20">
+        <f>(E20-$E$2)/$E$2</f>
+        <v>-0.24396782841823056</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="6"/>
+        <v>0.90217391304347827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>530</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="5"/>
+        <v>535</v>
+      </c>
+      <c r="E21">
+        <v>265</v>
+      </c>
+      <c r="F21">
+        <v>205</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>-9.3457943925233638E-3</v>
+      </c>
+      <c r="H21">
+        <f>(E21-$E$2)/$E$2</f>
+        <v>-0.289544235924933</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="6"/>
+        <v>1.2282608695652173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <f>C2</f>
+        <v>535</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" ref="D35:D37" si="8">$C$2</f>
+        <v>535</v>
+      </c>
+      <c r="E35">
+        <f>E2</f>
+        <v>373</v>
+      </c>
+      <c r="F35">
+        <f>F2</f>
+        <v>92</v>
+      </c>
+      <c r="G35">
+        <f>(C35-$C$2)/$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>(E35-$E$2)/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>(F35-$F$2)/$F$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1">
+        <v>523</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="8"/>
+        <v>535</v>
+      </c>
+      <c r="E36">
+        <v>299</v>
+      </c>
+      <c r="F36">
+        <v>178</v>
+      </c>
+      <c r="G36">
+        <f>(C36-$C$2)/$C$2</f>
+        <v>-2.2429906542056073E-2</v>
+      </c>
+      <c r="H36">
+        <f>(E36-$E$2)/$E$2</f>
+        <v>-0.19839142091152814</v>
+      </c>
+      <c r="I36">
+        <f>(F36-$F$2)/$F$2</f>
+        <v>0.93478260869565222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D37" s="9"/>
+      <c r="E37">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <f>C2</f>
+        <v>535</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" ref="D46:D47" si="9">$C$2</f>
+        <v>535</v>
+      </c>
+      <c r="E46">
+        <f>E2</f>
+        <v>373</v>
+      </c>
+      <c r="F46">
+        <f>F2</f>
+        <v>92</v>
+      </c>
+      <c r="G46">
+        <f>(C46-$C$2)/$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>(E46-$E$2)/$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f>(F46-$F$2)/$F$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1">
+        <v>622</v>
+      </c>
+      <c r="D47" s="9">
+        <f t="shared" si="9"/>
+        <v>535</v>
+      </c>
+      <c r="E47">
+        <v>148</v>
+      </c>
+      <c r="F47">
+        <v>230</v>
+      </c>
+      <c r="G47">
+        <f>(C47-$C$2)/$C$2</f>
+        <v>0.16261682242990655</v>
+      </c>
+      <c r="H47">
+        <f>(E47-$E$2)/$E$2</f>
+        <v>-0.60321715817694366</v>
+      </c>
+      <c r="I47">
+        <f>(F47-$F$2)/$F$2</f>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
